--- a/Thesis/lift_workbook.xlsx
+++ b/Thesis/lift_workbook.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22520" xr2:uid="{801E70A9-C0EB-B348-9892-C5FCAC97952B}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{801E70A9-C0EB-B348-9892-C5FCAC97952B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="lift_values" localSheetId="0">Sheet1!$A$1:$D$21</definedName>
+    <definedName name="lift_values_1" localSheetId="0">Sheet1!$A$54:$H$74</definedName>
+    <definedName name="lift_values_2" localSheetId="0">Sheet1!$A$107:$F$125</definedName>
+    <definedName name="lift_values_3" localSheetId="0">Sheet1!$A$160:$D$204</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,43 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F33B9314-5E61-464F-9611-2EB94C52BC6C}" name="lift_values" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="lift_values" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{CF906C93-3F37-754F-B754-CDF5F4671176}" name="lift_values1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{2112E234-F95E-9542-9E6A-93749A8484E8}" name="lift_values2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{D17B56FF-3C90-3E42-91C1-9482BED0E728}" name="lift_values3" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -42,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>female</t>
   </si>
@@ -112,6 +151,174 @@
   <si>
     <t>(model)</t>
   </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>(sky, sea)</t>
+  </si>
+  <si>
+    <t>(girl, beauty, dress)</t>
+  </si>
+  <si>
+    <t>(girl, wedding dress)</t>
+  </si>
+  <si>
+    <t>(wedding dress, gown, dress, photo shoot, beauty)</t>
+  </si>
+  <si>
+    <t>(dress, beauty, gown)</t>
+  </si>
+  <si>
+    <t>(wedding dress, gown, dress, photo shoot, beauty, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(sky, shoulder)</t>
+  </si>
+  <si>
+    <t>(dress, sky, beauty)</t>
+  </si>
+  <si>
+    <t>(girl, gown)</t>
+  </si>
+  <si>
+    <t>(sky, wedding dress)</t>
+  </si>
+  <si>
+    <t>(gown, dress, lady, photo shoot, beauty)</t>
+  </si>
+  <si>
+    <t>(sky, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(gown, dress, photo shoot, beauty)</t>
+  </si>
+  <si>
+    <t>(girl, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(girl, sky)</t>
+  </si>
+  <si>
+    <t>(wedding dress, gown, dress, photo shoot, beauty, shoulder, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(bride, shoulder)</t>
+  </si>
+  <si>
+    <t>(dress, photo shoot, beauty, woman, sky, wedding dress, gown, sea, girl, photograph)</t>
+  </si>
+  <si>
+    <t>(sky, bride)</t>
+  </si>
+  <si>
+    <t>(wedding dress, woman, photo shoot)</t>
+  </si>
+  <si>
+    <t>(wedding dress, gown, dress, bride, photo shoot, beauty, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(girl, lady)</t>
+  </si>
+  <si>
+    <t>(girl, photo shoot)</t>
+  </si>
+  <si>
+    <t>(sky, lady, sea)</t>
+  </si>
+  <si>
+    <t>(gown, sea, dress, beauty)</t>
+  </si>
+  <si>
+    <t>(girl, shoulder)</t>
+  </si>
+  <si>
+    <t>(woman, gown)</t>
+  </si>
+  <si>
+    <t>(woman, sea)</t>
+  </si>
+  <si>
+    <t>(wedding dress, sea)</t>
+  </si>
+  <si>
+    <t>(wedding dress, lady, shoulder, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(bride, woman, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(girl, bride)</t>
+  </si>
+  <si>
+    <t>(bride, lady)</t>
+  </si>
+  <si>
+    <t>(dress, beauty, woman, sky, body of water, gown, sea, girl, beach, vacation)</t>
+  </si>
+  <si>
+    <t>(photo shoot, sea)</t>
+  </si>
+  <si>
+    <t>(girl, sea)</t>
+  </si>
+  <si>
+    <t>(sky, dress, girl, beauty, woman)</t>
+  </si>
+  <si>
+    <t>(bridal clothing, shoulder, sea)</t>
+  </si>
+  <si>
+    <t>(sky, girl, dress, beauty, woman, vacation)</t>
+  </si>
+  <si>
+    <t>(fashion model, dress, photo shoot, model, beauty, sky, gown, sea, girl, lady)</t>
+  </si>
+  <si>
+    <t>(dress, photo shoot, wedding, beauty, shoulder, bridal clothing, sky, wedding dress, gown, bride)</t>
+  </si>
+  <si>
+    <t>(dress, beauty, woman, summer, sky, girl, cloud, vacation)</t>
+  </si>
+  <si>
+    <t>(gown, sea, dress, girl, photo shoot, model, beauty)</t>
+  </si>
+  <si>
+    <t>(wedding dress, model, shoulder, bridal clothing)</t>
+  </si>
 </sst>
 </file>
 
@@ -146,14 +353,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8D554A"/>
+      <color rgb="FFD9241E"/>
+      <color rgb="FF24A122"/>
+      <color rgb="FFE575C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -785,6 +1002,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lift</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -885,7 +1155,3840 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$55:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25-34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92499999999999905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92499999999999905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9241E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$55:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$55:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22857142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.43333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72499999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55-64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8D554A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$55:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E575C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(cloud)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(summer)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$55:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0663-3C4F-B428-CBE209E595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="424453360"/>
+        <c:axId val="424164880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424453360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424164880"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424164880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="0.125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lift</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424453360"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$108:$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$108:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.07777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7F2-6348-AA4C-02675E13CC86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hungary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$108:$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$108:$C$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85714285714285698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7F2-6348-AA4C-02675E13CC86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Philippines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$108:$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$108:$D$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0857142857142801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81428571428571395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7F2-6348-AA4C-02675E13CC86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ukraine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9241E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$108:$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$108:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.11666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A7F2-6348-AA4C-02675E13CC86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$108:$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>(gown)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(sky)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(lady)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(vacation)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sea)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(beach)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(body of water)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(bride)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(woman)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(wedding)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(photograph)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(model)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(fashion model)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$108:$F$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A7F2-6348-AA4C-02675E13CC86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="424453360"/>
+        <c:axId val="424164880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424453360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424164880"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424164880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="0.125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lift</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424453360"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43058522461470067"/>
+          <c:y val="5.6511349315460264E-3"/>
+          <c:w val="0.51860018471277769"/>
+          <c:h val="0.95477716689067593"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$161:$A$204</c:f>
+              <c:strCache>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl, beauty, dress)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(girl, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(sky, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(dress, sky, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sky, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(gown, dress, lady, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(gown, dress, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(girl, sky)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty, shoulder, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(bride, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(dress, photo shoot, beauty, woman, sky, wedding dress, gown, sea, girl, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(wedding dress, woman, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(wedding dress, gown, dress, bride, photo shoot, beauty, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(girl, lady)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(sky, lady, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(gown, sea, dress, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(girl, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(wedding dress, lady, shoulder, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(bride, woman, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(bride, lady)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(dress, beauty, woman, sky, body of water, gown, sea, girl, beach, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, dress, girl, beauty, woman)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(bridal clothing, shoulder, sea)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(sky, girl, dress, beauty, woman, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(fashion model, dress, photo shoot, model, beauty, sky, gown, sea, girl, lady)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(dress, photo shoot, wedding, beauty, shoulder, bridal clothing, sky, wedding dress, gown, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(dress, beauty, woman, summer, sky, girl, cloud, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(gown, sea, dress, girl, photo shoot, model, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(wedding dress, model, shoulder, bridal clothing)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$161:$B$204</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0888888888888799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.21428571428571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.06666666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4249999999999901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4BE0-6C41-85AA-2FC160C9EC9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$161:$A$204</c:f>
+              <c:strCache>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl, beauty, dress)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(girl, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(sky, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(dress, sky, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sky, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(gown, dress, lady, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(gown, dress, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(girl, sky)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty, shoulder, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(bride, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(dress, photo shoot, beauty, woman, sky, wedding dress, gown, sea, girl, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(wedding dress, woman, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(wedding dress, gown, dress, bride, photo shoot, beauty, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(girl, lady)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(sky, lady, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(gown, sea, dress, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(girl, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(wedding dress, lady, shoulder, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(bride, woman, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(bride, lady)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(dress, beauty, woman, sky, body of water, gown, sea, girl, beach, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, dress, girl, beauty, woman)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(bridal clothing, shoulder, sea)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(sky, girl, dress, beauty, woman, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(fashion model, dress, photo shoot, model, beauty, sky, gown, sea, girl, lady)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(dress, photo shoot, wedding, beauty, shoulder, bridal clothing, sky, wedding dress, gown, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(dress, beauty, woman, summer, sky, girl, cloud, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(gown, sea, dress, girl, photo shoot, model, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(wedding dress, model, shoulder, bridal clothing)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$161:$C$204</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0444444444444401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.18333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79999999999999905</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4BE0-6C41-85AA-2FC160C9EC9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not_chosen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$161:$A$204</c:f>
+              <c:strCache>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(girl, beauty, dress)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(girl, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(sky, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(dress, sky, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(sky, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(gown, dress, lady, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(gown, dress, photo shoot, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(girl, sky)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, gown, dress, photo shoot, beauty, shoulder, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(bride, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(dress, photo shoot, beauty, woman, sky, wedding dress, gown, sea, girl, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(wedding dress, woman, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(wedding dress, gown, dress, bride, photo shoot, beauty, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(girl, lady)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(sky, lady, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(gown, sea, dress, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(girl, shoulder)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(wedding dress, lady, shoulder, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(bride, woman, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(bride, lady)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(dress, beauty, woman, sky, body of water, gown, sea, girl, beach, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, dress, girl, beauty, woman)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(bridal clothing, shoulder, sea)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(sky, girl, dress, beauty, woman, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(fashion model, dress, photo shoot, model, beauty, sky, gown, sea, girl, lady)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(dress, photo shoot, wedding, beauty, shoulder, bridal clothing, sky, wedding dress, gown, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(dress, beauty, woman, summer, sky, girl, cloud, vacation)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(gown, sea, dress, girl, photo shoot, model, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(wedding dress, model, shoulder, bridal clothing)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$161:$D$204</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94285714285714295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97777777777777697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.01428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0857142857142801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92499999999999905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.06666666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2249999999999901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4BE0-6C41-85AA-2FC160C9EC9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="424453360"/>
+        <c:axId val="424164880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424453360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1000" spc="-100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424164880"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424164880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="0.125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lift</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424453360"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.93117903656434231"/>
+          <c:y val="3.8868522239946461E-2"/>
+          <c:w val="6.8820963435657662E-2"/>
+          <c:h val="5.9272522519038508E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1430,20 +5533,1535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,11 +7086,137 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A93054-EF55-1C4A-8269-25F7B881F742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567604F3-1269-6847-ADE9-36B294C84B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423335</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>164411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622204</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>84668</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B2D59B-19B9-7F4E-BB87-AE70501E76AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values" connectionId="1" xr16:uid="{F0D0DA26-5F01-274B-9421-769C6E938951}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_3" connectionId="4" xr16:uid="{408DAAC7-EAAA-CB44-8C11-FF0BE187A78E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_2" connectionId="3" xr16:uid="{59930D59-C482-F34C-AAF0-8F0FDE9E0B4A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_1" connectionId="2" xr16:uid="{C334022C-85B0-154C-9DDA-B025AC50BFBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1772,16 +7516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4751C8D4-1090-C341-B0D1-8EEB1B7BCB95}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2075,6 +7820,1575 @@
         <v>1.0999999999999901</v>
       </c>
     </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.05555555555555</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1.1111111111111101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.0125</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.0125</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.0125</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.0625</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.01428571428571</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.0571428571428501</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1.22857142857142</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1.4285714285714199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.88571428571428501</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.61428571428571399</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1.675</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.72499999999999898</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.44999999999999</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F73" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G74" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="E75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="E76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>1.07777777777777</v>
+      </c>
+      <c r="C108">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="D108">
+        <v>1.05555555555555</v>
+      </c>
+      <c r="E108">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="F108">
+        <v>1.1111111111111101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1.1125</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1.075</v>
+      </c>
+      <c r="E109">
+        <v>1.25</v>
+      </c>
+      <c r="F109">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="C110">
+        <v>1.25</v>
+      </c>
+      <c r="D110">
+        <v>1.0125</v>
+      </c>
+      <c r="E110">
+        <v>1.25</v>
+      </c>
+      <c r="F110">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>1.01428571428571</v>
+      </c>
+      <c r="C111">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="D111">
+        <v>1.0857142857142801</v>
+      </c>
+      <c r="E111">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="F111">
+        <v>1.4285714285714199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>0.9</v>
+      </c>
+      <c r="C112">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D112">
+        <v>0.81428571428571395</v>
+      </c>
+      <c r="E112">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="F112">
+        <v>1.4285714285714199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="E113">
+        <v>1.11666666666666</v>
+      </c>
+      <c r="F113">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>0.874999999999999</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0.95</v>
+      </c>
+      <c r="E114">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F114">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>0.65</v>
+      </c>
+      <c r="C115">
+        <v>1E-4</v>
+      </c>
+      <c r="D115">
+        <v>0.95</v>
+      </c>
+      <c r="E115">
+        <v>1E-4</v>
+      </c>
+      <c r="F115">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>0.96</v>
+      </c>
+      <c r="C116">
+        <v>1.2</v>
+      </c>
+      <c r="D116">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E116">
+        <v>0.66</v>
+      </c>
+      <c r="F116">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117">
+        <v>1.22</v>
+      </c>
+      <c r="C117">
+        <v>1.2</v>
+      </c>
+      <c r="D117">
+        <v>1.04</v>
+      </c>
+      <c r="E117">
+        <v>1.34</v>
+      </c>
+      <c r="F117">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1E-4</v>
+      </c>
+      <c r="D118">
+        <v>1.4</v>
+      </c>
+      <c r="E118">
+        <v>1E-4</v>
+      </c>
+      <c r="F118">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1E-4</v>
+      </c>
+      <c r="D119">
+        <v>1.4</v>
+      </c>
+      <c r="E119">
+        <v>1E-4</v>
+      </c>
+      <c r="F119">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>0.874999999999999</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1.075</v>
+      </c>
+      <c r="E120">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F120">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>0.874999999999999</v>
+      </c>
+      <c r="C121">
+        <v>0.5</v>
+      </c>
+      <c r="D121">
+        <v>0.95</v>
+      </c>
+      <c r="E121">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F121">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1E-4</v>
+      </c>
+      <c r="F122">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1.4</v>
+      </c>
+      <c r="E123">
+        <v>1E-4</v>
+      </c>
+      <c r="F123">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>1.8499999999999901</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>0.95</v>
+      </c>
+      <c r="E124">
+        <v>3.35</v>
+      </c>
+      <c r="F124">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>1.5999999999999901</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1E-4</v>
+      </c>
+      <c r="E125">
+        <v>3.3</v>
+      </c>
+      <c r="F125">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="C162">
+        <v>1.075</v>
+      </c>
+      <c r="D162">
+        <v>1.0999999999999901</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C163">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D163">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>38</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1.01428571428571</v>
+      </c>
+      <c r="D164">
+        <v>0.94285714285714295</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165">
+        <v>1.0888888888888799</v>
+      </c>
+      <c r="C165">
+        <v>1.0444444444444401</v>
+      </c>
+      <c r="D165">
+        <v>0.97777777777777697</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167">
+        <v>0.6</v>
+      </c>
+      <c r="C167">
+        <v>0.7</v>
+      </c>
+      <c r="D167">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168">
+        <v>0.88571428571428501</v>
+      </c>
+      <c r="C168">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="D168">
+        <v>1.01428571428571</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169">
+        <v>1.21428571428571</v>
+      </c>
+      <c r="C169">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="D169">
+        <v>1.0857142857142801</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="C170">
+        <v>0.95</v>
+      </c>
+      <c r="D170">
+        <v>0.92499999999999905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171">
+        <v>0.874999999999999</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C172">
+        <v>0.9</v>
+      </c>
+      <c r="D172">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173">
+        <v>1.125</v>
+      </c>
+      <c r="C173">
+        <v>1.0499999999999901</v>
+      </c>
+      <c r="D173">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174">
+        <v>1.2</v>
+      </c>
+      <c r="C174">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D174">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1.08</v>
+      </c>
+      <c r="D175">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>0.92</v>
+      </c>
+      <c r="D176">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>51</v>
+      </c>
+      <c r="B177">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C177">
+        <v>0.9</v>
+      </c>
+      <c r="D177">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="D178">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1.0499999999999901</v>
+      </c>
+      <c r="D179">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1.2</v>
+      </c>
+      <c r="D180">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="C181">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D181">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="C182">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="D182">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183">
+        <v>1.3</v>
+      </c>
+      <c r="C183">
+        <v>1.18333333333333</v>
+      </c>
+      <c r="D183">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185">
+        <v>1.3</v>
+      </c>
+      <c r="C185">
+        <v>1.06</v>
+      </c>
+      <c r="D185">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>60</v>
+      </c>
+      <c r="B186">
+        <v>1.2666666666666599</v>
+      </c>
+      <c r="C186">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D186">
+        <v>0.96666666666666601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="C187">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="D187">
+        <v>1.2333333333333301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188">
+        <v>0.89999999999999902</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189">
+        <v>1.2666666666666599</v>
+      </c>
+      <c r="C189">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="D189">
+        <v>1.06666666666666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="D190">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>65</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1.4</v>
+      </c>
+      <c r="D191">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C192">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="D192">
+        <v>0.96666666666666601</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>67</v>
+      </c>
+      <c r="B193">
+        <v>0.6</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>68</v>
+      </c>
+      <c r="B194">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="C194">
+        <v>0.89999999999999902</v>
+      </c>
+      <c r="D194">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>69</v>
+      </c>
+      <c r="B195">
+        <v>1.4249999999999901</v>
+      </c>
+      <c r="C195">
+        <v>1.075</v>
+      </c>
+      <c r="D195">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196">
+        <v>1.5499999999999901</v>
+      </c>
+      <c r="C196">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D196">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1.2249999999999901</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>72</v>
+      </c>
+      <c r="B198">
+        <v>1.4</v>
+      </c>
+      <c r="C198">
+        <v>0.95</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>73</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="C199">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="D199">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>1.4</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>0.7</v>
+      </c>
+      <c r="D201">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>76</v>
+      </c>
+      <c r="B202">
+        <v>1E-4</v>
+      </c>
+      <c r="C202">
+        <v>0.6</v>
+      </c>
+      <c r="D202">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>77</v>
+      </c>
+      <c r="B203">
+        <v>2.25</v>
+      </c>
+      <c r="C203">
+        <v>1.3</v>
+      </c>
+      <c r="D203">
+        <v>1.0999999999999901</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>78</v>
+      </c>
+      <c r="B204">
+        <v>2.5</v>
+      </c>
+      <c r="C204">
+        <v>1.3</v>
+      </c>
+      <c r="D204">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Thesis/lift_workbook.xlsx
+++ b/Thesis/lift_workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{801E70A9-C0EB-B348-9892-C5FCAC97952B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{801E70A9-C0EB-B348-9892-C5FCAC97952B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="lift_values_1" localSheetId="0">Sheet1!$A$54:$H$74</definedName>
     <definedName name="lift_values_2" localSheetId="0">Sheet1!$A$107:$F$125</definedName>
     <definedName name="lift_values_3" localSheetId="0">Sheet1!$A$160:$D$204</definedName>
+    <definedName name="lift_values_4" localSheetId="0">Sheet1!$A$256:$H$302</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,43 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{CF906C93-3F37-754F-B754-CDF5F4671176}" name="lift_values1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="lift_values1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="lift_values2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="lift_values3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{7007E352-00B8-5546-A640-A08B317F5C60}" name="lift_values4" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
       <textFields count="8">
         <textField/>
@@ -55,33 +92,11 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{2112E234-F95E-9542-9E6A-93749A8484E8}" name="lift_values2" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
-      <textFields count="6">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" xr16:uid="{D17B56FF-3C90-3E42-91C1-9482BED0E728}" name="lift_values3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ivanicspeter92/Personal development/choicely_data_analysis/lift_values.csv" thousands=" " tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>female</t>
   </si>
@@ -318,6 +333,108 @@
   </si>
   <si>
     <t>(wedding dress, model, shoulder, bridal clothing)</t>
+  </si>
+  <si>
+    <t>(beauty, gown, dress)</t>
+  </si>
+  <si>
+    <t>(dress, girl, beauty)</t>
+  </si>
+  <si>
+    <t>(photo shoot, dress, beauty, gown)</t>
+  </si>
+  <si>
+    <t>(photo shoot, dress, beauty, wedding dress, gown)</t>
+  </si>
+  <si>
+    <t>(wedding dress, girl)</t>
+  </si>
+  <si>
+    <t>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</t>
+  </si>
+  <si>
+    <t>(shoulder, sky)</t>
+  </si>
+  <si>
+    <t>(woman, vacation, sky, dress, girl, beauty)</t>
+  </si>
+  <si>
+    <t>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</t>
+  </si>
+  <si>
+    <t>(beauty, sky, dress)</t>
+  </si>
+  <si>
+    <t>(dress, sea, beauty, gown)</t>
+  </si>
+  <si>
+    <t>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</t>
+  </si>
+  <si>
+    <t>(wedding dress, sky)</t>
+  </si>
+  <si>
+    <t>(sky, gown)</t>
+  </si>
+  <si>
+    <t>(lady, sky, sea)</t>
+  </si>
+  <si>
+    <t>(woman, sky, dress, girl, beauty)</t>
+  </si>
+  <si>
+    <t>(sky, photo shoot)</t>
+  </si>
+  <si>
+    <t>(sky, girl)</t>
+  </si>
+  <si>
+    <t>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</t>
+  </si>
+  <si>
+    <t>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</t>
+  </si>
+  <si>
+    <t>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</t>
+  </si>
+  <si>
+    <t>(photo shoot, dress, beauty, lady, gown)</t>
+  </si>
+  <si>
+    <t>(lady, girl)</t>
+  </si>
+  <si>
+    <t>(shoulder, bridal clothing, sea)</t>
+  </si>
+  <si>
+    <t>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</t>
+  </si>
+  <si>
+    <t>(photo shoot, dress, girl, model, sea, beauty, gown)</t>
+  </si>
+  <si>
+    <t>(shoulder, girl)</t>
+  </si>
+  <si>
+    <t>(woman, photo shoot, wedding dress)</t>
+  </si>
+  <si>
+    <t>(shoulder, bride)</t>
+  </si>
+  <si>
+    <t>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</t>
+  </si>
+  <si>
+    <t>(shoulder, bridal clothing, lady, wedding dress)</t>
+  </si>
+  <si>
+    <t>(woman, bridal clothing, bride)</t>
+  </si>
+  <si>
+    <t>(lady, bride)</t>
+  </si>
+  <si>
+    <t>(shoulder, model, bridal clothing, wedding dress)</t>
   </si>
 </sst>
 </file>
@@ -4868,6 +4985,2561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43058522461470067"/>
+          <c:y val="5.6511349315460264E-3"/>
+          <c:w val="0.51860018471277769"/>
+          <c:h val="0.95477716689067593"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$257:$B$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1571428571428499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.18333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63333333333333297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72499999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$257:$C$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.05555555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0857142857142801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01428571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.11666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63333333333333297</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63333333333333297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25-34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$257:$D$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.0333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.11666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98333333333333295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92499999999999905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92499999999999905</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92499999999999905</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35-44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$257:$E$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$257:$F$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22857142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.22857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.43333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72499999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72499999999999898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6999999999999904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55-64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$257:$G$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95714285714285696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$257:$A$302</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>(beauty, gown, dress)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(photo shoot, dress, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(girl, gown)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(photo shoot, dress, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(girl, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(wedding dress, girl)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(shoulder, sky)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(woman, vacation, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(woman, sky, dress, cloud, vacation, girl, summer, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(sky, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(beauty, sky, dress)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(dress, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(woman, sky, dress, gown, vacation, girl, body of water, sea, beauty, beach)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(wedding dress, sky)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(sky, gown)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(lady, sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(woman, sky, dress, girl, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(sky, sea)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(girl, bridal clothing)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(sky, bride)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(wedding dress, sea)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>(girl, sea)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>(photo shoot, sea)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>(sky, photo shoot)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(woman, sea)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>(sky, girl)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>(shoulder, photo shoot, dress, bridal clothing, beauty, wedding dress, gown)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>(shoulder, sky, photo shoot, dress, bridal clothing, bride, gown, wedding, beauty, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>(photo shoot, dress, bridal clothing, beauty, wedding dress, bride, gown)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>(photo shoot, dress, beauty, lady, gown)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>(woman, gown)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>(lady, girl)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>(girl, bride)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>(shoulder, bridal clothing, sea)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>(sky, photo shoot, dress, lady, fashion model, gown, girl, model, sea, beauty)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>(photo shoot, dress, girl, model, sea, beauty, gown)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>(shoulder, girl)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>(woman, photo shoot, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>(shoulder, bride)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>(woman, sky, photo shoot, dress, gown, girl, sea, beauty, wedding dress, photograph)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>(shoulder, bridal clothing, lady, wedding dress)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>(woman, bridal clothing, bride)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>(lady, bride)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>(shoulder, model, bridal clothing, wedding dress)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$257:$H$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E462-FA40-94B2-4B15C79CED61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="424453360"/>
+        <c:axId val="424164880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424453360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1000" spc="-100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424164880"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424164880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="0.125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lift</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424453360"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.93117903656434231"/>
+          <c:y val="3.8868522239946461E-2"/>
+          <c:w val="4.9814455262997194E-2"/>
+          <c:h val="0.16371745101629739"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5028,6 +7700,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -6544,6 +9256,511 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7200,23 +10417,65 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>613833</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124C9A18-5FCF-5A48-BA44-0D8AD12174B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_3" connectionId="4" xr16:uid="{408DAAC7-EAAA-CB44-8C11-FF0BE187A78E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_4" connectionId="5" xr16:uid="{4C2418C3-6A98-4D4F-94AA-F69CB813DD9A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_2" connectionId="3" xr16:uid="{59930D59-C482-F34C-AAF0-8F0FDE9E0B4A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_1" connectionId="2" xr16:uid="{C334022C-85B0-154C-9DDA-B025AC50BFBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_3" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_2" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lift_values_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7516,17 +10775,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4751C8D4-1090-C341-B0D1-8EEB1B7BCB95}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9389,6 +12647,1225 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="256" spans="2:8">
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" t="s">
+        <v>24</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256" t="s">
+        <v>26</v>
+      </c>
+      <c r="F256" t="s">
+        <v>27</v>
+      </c>
+      <c r="G256" t="s">
+        <v>28</v>
+      </c>
+      <c r="H256" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>79</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1.05555555555555</v>
+      </c>
+      <c r="D257">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="E257">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="F257">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="G257">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="H257">
+        <v>1.1111111111111101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>80</v>
+      </c>
+      <c r="B258">
+        <v>1.125</v>
+      </c>
+      <c r="C258">
+        <v>1.0125</v>
+      </c>
+      <c r="D258">
+        <v>1.0125</v>
+      </c>
+      <c r="E258">
+        <v>1.125</v>
+      </c>
+      <c r="F258">
+        <v>1.075</v>
+      </c>
+      <c r="G258">
+        <v>1.25</v>
+      </c>
+      <c r="H258">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>81</v>
+      </c>
+      <c r="B259">
+        <v>1.0125</v>
+      </c>
+      <c r="C259">
+        <v>1.075</v>
+      </c>
+      <c r="D259">
+        <v>1.0625</v>
+      </c>
+      <c r="E259">
+        <v>1.125</v>
+      </c>
+      <c r="F259">
+        <v>1.25</v>
+      </c>
+      <c r="G259">
+        <v>1.25</v>
+      </c>
+      <c r="H259">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>43</v>
+      </c>
+      <c r="B260">
+        <v>1.1571428571428499</v>
+      </c>
+      <c r="C260">
+        <v>1.0857142857142801</v>
+      </c>
+      <c r="D260">
+        <v>1.0571428571428501</v>
+      </c>
+      <c r="E260">
+        <v>1.28571428571428</v>
+      </c>
+      <c r="F260">
+        <v>1.22857142857142</v>
+      </c>
+      <c r="G260">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="H260">
+        <v>1.4285714285714199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>82</v>
+      </c>
+      <c r="B261">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="C261">
+        <v>1.01428571428571</v>
+      </c>
+      <c r="D261">
+        <v>1.0571428571428501</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1.22857142857142</v>
+      </c>
+      <c r="G261">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="H261">
+        <v>1.4285714285714199</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>57</v>
+      </c>
+      <c r="B262">
+        <v>1.18333333333333</v>
+      </c>
+      <c r="C262">
+        <v>1.11666666666666</v>
+      </c>
+      <c r="D262">
+        <v>1.11666666666666</v>
+      </c>
+      <c r="E262">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="F262">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G262">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="H262">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>83</v>
+      </c>
+      <c r="B263">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C263">
+        <v>1.04</v>
+      </c>
+      <c r="D263">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E263">
+        <v>1.2</v>
+      </c>
+      <c r="F263">
+        <v>1.42</v>
+      </c>
+      <c r="G263">
+        <v>1.34</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>84</v>
+      </c>
+      <c r="B264">
+        <v>0.95</v>
+      </c>
+      <c r="C264">
+        <v>0.95</v>
+      </c>
+      <c r="D264">
+        <v>1.05</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G264">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H264">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>85</v>
+      </c>
+      <c r="B265">
+        <v>0.5</v>
+      </c>
+      <c r="C265">
+        <v>0.95</v>
+      </c>
+      <c r="D265">
+        <v>0.95</v>
+      </c>
+      <c r="E265">
+        <v>0.5</v>
+      </c>
+      <c r="F265">
+        <v>0.7</v>
+      </c>
+      <c r="G265">
+        <v>1E-4</v>
+      </c>
+      <c r="H265">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>86</v>
+      </c>
+      <c r="B266">
+        <v>0.95</v>
+      </c>
+      <c r="C266">
+        <v>0.7</v>
+      </c>
+      <c r="D266">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="E266">
+        <v>0.5</v>
+      </c>
+      <c r="F266">
+        <v>1E-4</v>
+      </c>
+      <c r="G266">
+        <v>1E-4</v>
+      </c>
+      <c r="H266">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>87</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>1E-4</v>
+      </c>
+      <c r="D267">
+        <v>0.7</v>
+      </c>
+      <c r="E267">
+        <v>1E-4</v>
+      </c>
+      <c r="F267">
+        <v>1E-4</v>
+      </c>
+      <c r="G267">
+        <v>1E-4</v>
+      </c>
+      <c r="H267">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>46</v>
+      </c>
+      <c r="B268">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="C268">
+        <v>0.8</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="F268">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="G268">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H268">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>88</v>
+      </c>
+      <c r="B269">
+        <v>0.88571428571428501</v>
+      </c>
+      <c r="C269">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="D269">
+        <v>0.95714285714285696</v>
+      </c>
+      <c r="E269">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="F269">
+        <v>0.61428571428571399</v>
+      </c>
+      <c r="G269">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="H269">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>89</v>
+      </c>
+      <c r="B270">
+        <v>1.04</v>
+      </c>
+      <c r="C270">
+        <v>1.42</v>
+      </c>
+      <c r="D270">
+        <v>1.04</v>
+      </c>
+      <c r="E270">
+        <v>1.2</v>
+      </c>
+      <c r="F270">
+        <v>1.42</v>
+      </c>
+      <c r="G270">
+        <v>1.34</v>
+      </c>
+      <c r="H270">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>90</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>0.7</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1E-4</v>
+      </c>
+      <c r="G271">
+        <v>1E-4</v>
+      </c>
+      <c r="H271">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>91</v>
+      </c>
+      <c r="B272">
+        <v>0.72499999999999898</v>
+      </c>
+      <c r="C272">
+        <v>0.95</v>
+      </c>
+      <c r="D272">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E272">
+        <v>1.25</v>
+      </c>
+      <c r="F272">
+        <v>0.72499999999999898</v>
+      </c>
+      <c r="G272">
+        <v>1.675</v>
+      </c>
+      <c r="H272">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>92</v>
+      </c>
+      <c r="B273">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="C273">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="D273">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E273">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="F273">
+        <v>0.71666666666666601</v>
+      </c>
+      <c r="G273">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="H273">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>93</v>
+      </c>
+      <c r="B274">
+        <v>0.95</v>
+      </c>
+      <c r="C274">
+        <v>1.2</v>
+      </c>
+      <c r="D274">
+        <v>0.95</v>
+      </c>
+      <c r="E274">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F274">
+        <v>0.7</v>
+      </c>
+      <c r="G274">
+        <v>1.65</v>
+      </c>
+      <c r="H274">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>94</v>
+      </c>
+      <c r="B275">
+        <v>0.95</v>
+      </c>
+      <c r="C275">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D275">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="E275">
+        <v>1.25</v>
+      </c>
+      <c r="F275">
+        <v>0.35</v>
+      </c>
+      <c r="G275">
+        <v>1.675</v>
+      </c>
+      <c r="H275">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>35</v>
+      </c>
+      <c r="B276">
+        <v>0.95</v>
+      </c>
+      <c r="C276">
+        <v>1.2</v>
+      </c>
+      <c r="D276">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="E276">
+        <v>1.25</v>
+      </c>
+      <c r="F276">
+        <v>0.35</v>
+      </c>
+      <c r="G276">
+        <v>1.675</v>
+      </c>
+      <c r="H276">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277">
+        <v>1.2</v>
+      </c>
+      <c r="C277">
+        <v>0.95</v>
+      </c>
+      <c r="D277">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E277">
+        <v>1.25</v>
+      </c>
+      <c r="F277">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G277">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H277">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>53</v>
+      </c>
+      <c r="B278">
+        <v>0.7</v>
+      </c>
+      <c r="C278">
+        <v>0.7</v>
+      </c>
+      <c r="D278">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E278">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F278">
+        <v>1.44999999999999</v>
+      </c>
+      <c r="G278">
+        <v>1.65</v>
+      </c>
+      <c r="H278">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>63</v>
+      </c>
+      <c r="B279">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="C279">
+        <v>1.6</v>
+      </c>
+      <c r="D279">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1.9</v>
+      </c>
+      <c r="G279">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H279">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>70</v>
+      </c>
+      <c r="B280">
+        <v>1.2</v>
+      </c>
+      <c r="C280">
+        <v>1.5499999999999901</v>
+      </c>
+      <c r="D280">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E280">
+        <v>1.25</v>
+      </c>
+      <c r="F280">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G280">
+        <v>1.675</v>
+      </c>
+      <c r="H280">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>69</v>
+      </c>
+      <c r="B281">
+        <v>1.075</v>
+      </c>
+      <c r="C281">
+        <v>1.5499999999999901</v>
+      </c>
+      <c r="D281">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E281">
+        <v>1.25</v>
+      </c>
+      <c r="F281">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G281">
+        <v>1.675</v>
+      </c>
+      <c r="H281">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>95</v>
+      </c>
+      <c r="B282">
+        <v>0.86</v>
+      </c>
+      <c r="C282">
+        <v>1.04</v>
+      </c>
+      <c r="D282">
+        <v>1.04</v>
+      </c>
+      <c r="E282">
+        <v>1.4</v>
+      </c>
+      <c r="F282">
+        <v>0.86</v>
+      </c>
+      <c r="G282">
+        <v>2</v>
+      </c>
+      <c r="H282">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>62</v>
+      </c>
+      <c r="B283">
+        <v>0.95</v>
+      </c>
+      <c r="C283">
+        <v>1.2</v>
+      </c>
+      <c r="D283">
+        <v>0.95</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1E-4</v>
+      </c>
+      <c r="G283">
+        <v>1.65</v>
+      </c>
+      <c r="H283">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>96</v>
+      </c>
+      <c r="B284">
+        <v>1.04</v>
+      </c>
+      <c r="C284">
+        <v>0.96</v>
+      </c>
+      <c r="D284">
+        <v>0.96</v>
+      </c>
+      <c r="E284">
+        <v>1.4</v>
+      </c>
+      <c r="F284">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G284">
+        <v>2</v>
+      </c>
+      <c r="H284">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>97</v>
+      </c>
+      <c r="B285">
+        <v>0.96</v>
+      </c>
+      <c r="C285">
+        <v>1.04</v>
+      </c>
+      <c r="D285">
+        <v>1.04</v>
+      </c>
+      <c r="E285">
+        <v>0.6</v>
+      </c>
+      <c r="F285">
+        <v>1.42</v>
+      </c>
+      <c r="G285">
+        <v>1E-4</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>98</v>
+      </c>
+      <c r="B286">
+        <v>1E-4</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E286">
+        <v>1E-4</v>
+      </c>
+      <c r="F286">
+        <v>1.4</v>
+      </c>
+      <c r="G286">
+        <v>1E-4</v>
+      </c>
+      <c r="H286">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>99</v>
+      </c>
+      <c r="B287">
+        <v>0.95</v>
+      </c>
+      <c r="C287">
+        <v>0.6</v>
+      </c>
+      <c r="D287">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>0.72499999999999898</v>
+      </c>
+      <c r="G287">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H287">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>100</v>
+      </c>
+      <c r="B288">
+        <v>1.075</v>
+      </c>
+      <c r="C288">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D288">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>0.35</v>
+      </c>
+      <c r="G288">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H288">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>61</v>
+      </c>
+      <c r="B289">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="C289">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="F289">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G289">
+        <v>2.2333333333333298</v>
+      </c>
+      <c r="H289">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>101</v>
+      </c>
+      <c r="B290">
+        <v>1.2666666666666599</v>
+      </c>
+      <c r="C290">
+        <v>0.8</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G290">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H290">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>66</v>
+      </c>
+      <c r="B291">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C291">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="F291">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G291">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H291">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>102</v>
+      </c>
+      <c r="B292">
+        <v>0.95</v>
+      </c>
+      <c r="C292">
+        <v>1.65</v>
+      </c>
+      <c r="D292">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>2.8499999999999899</v>
+      </c>
+      <c r="G292">
+        <v>1E-4</v>
+      </c>
+      <c r="H292">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>103</v>
+      </c>
+      <c r="B293">
+        <v>1.4</v>
+      </c>
+      <c r="C293">
+        <v>1.4</v>
+      </c>
+      <c r="D293">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>1.4</v>
+      </c>
+      <c r="G293">
+        <v>3.3</v>
+      </c>
+      <c r="H293">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>104</v>
+      </c>
+      <c r="B294">
+        <v>1.44999999999999</v>
+      </c>
+      <c r="C294">
+        <v>1.9</v>
+      </c>
+      <c r="D294">
+        <v>1.3</v>
+      </c>
+      <c r="E294">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F294">
+        <v>3.55</v>
+      </c>
+      <c r="G294">
+        <v>1.65</v>
+      </c>
+      <c r="H294">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>105</v>
+      </c>
+      <c r="B295">
+        <v>1.2666666666666599</v>
+      </c>
+      <c r="C295">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D295">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E295">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="F295">
+        <v>1.9</v>
+      </c>
+      <c r="G295">
+        <v>1E-4</v>
+      </c>
+      <c r="H295">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>106</v>
+      </c>
+      <c r="B296">
+        <v>0.95</v>
+      </c>
+      <c r="C296">
+        <v>0.95</v>
+      </c>
+      <c r="D296">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>0.7</v>
+      </c>
+      <c r="G296">
+        <v>3.35</v>
+      </c>
+      <c r="H296">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>107</v>
+      </c>
+      <c r="B297">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="C297">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F297">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G297">
+        <v>1E-4</v>
+      </c>
+      <c r="H297">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>108</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1.4</v>
+      </c>
+      <c r="D298">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1E-4</v>
+      </c>
+      <c r="G298">
+        <v>3.3</v>
+      </c>
+      <c r="H298">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>109</v>
+      </c>
+      <c r="B299">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="C299">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="D299">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="E299">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="F299">
+        <v>1E-4</v>
+      </c>
+      <c r="G299">
+        <v>1E-4</v>
+      </c>
+      <c r="H299">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>110</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1E-4</v>
+      </c>
+      <c r="D300">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="E300">
+        <v>2.9999999999999898</v>
+      </c>
+      <c r="F300">
+        <v>1.4</v>
+      </c>
+      <c r="G300">
+        <v>3.3</v>
+      </c>
+      <c r="H300">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>111</v>
+      </c>
+      <c r="B301">
+        <v>1.2</v>
+      </c>
+      <c r="C301">
+        <v>0.5</v>
+      </c>
+      <c r="D301">
+        <v>0.95</v>
+      </c>
+      <c r="E301">
+        <v>0.5</v>
+      </c>
+      <c r="F301">
+        <v>1E-4</v>
+      </c>
+      <c r="G301">
+        <v>1E-4</v>
+      </c>
+      <c r="H301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>112</v>
+      </c>
+      <c r="B302">
+        <v>1.4</v>
+      </c>
+      <c r="C302">
+        <v>2.4</v>
+      </c>
+      <c r="D302">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>5.6999999999999904</v>
+      </c>
+      <c r="G302">
+        <v>1E-4</v>
+      </c>
+      <c r="H302">
+        <v>1E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
